--- a/classification/droptc/sentence/modern-bert/unfreeze/14298463/prediction.xlsx
+++ b/classification/droptc/sentence/modern-bert/unfreeze/14298463/prediction.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9944790601730347</v>
+        <v>0.9999829530715942</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9994623064994812</v>
+        <v>0.9999798536300659</v>
       </c>
     </row>
     <row r="4">
@@ -534,7 +534,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -546,7 +546,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9711551666259766</v>
+        <v>0.9689854979515076</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9985931515693665</v>
+        <v>0.9976632595062256</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9984040856361389</v>
+        <v>0.9999878406524658</v>
       </c>
     </row>
     <row r="7">
@@ -618,19 +618,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9705451130867004</v>
+        <v>0.9999904632568359</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.920915961265564</v>
+        <v>0.9999934434890747</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9993473887443542</v>
+        <v>0.9999945163726807</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9990198612213135</v>
+        <v>0.9999934434890747</v>
       </c>
     </row>
     <row r="11">
@@ -730,19 +730,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9939405918121338</v>
+        <v>0.9999954700469971</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9988208413124084</v>
+        <v>0.9999954700469971</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.99726402759552</v>
+        <v>0.99985671043396</v>
       </c>
     </row>
     <row r="14">
@@ -814,19 +814,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9928187727928162</v>
+        <v>0.9999881982803345</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9982962012290955</v>
+        <v>0.9999922513961792</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9984839558601379</v>
+        <v>0.9999884366989136</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9984900951385498</v>
+        <v>0.9999828338623047</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9983805418014526</v>
+        <v>0.9999518394470215</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9981827735900879</v>
+        <v>0.9999930858612061</v>
       </c>
     </row>
     <row r="20">
@@ -982,19 +982,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9897488951683044</v>
+        <v>0.9999948740005493</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9968234300613403</v>
+        <v>0.9999892711639404</v>
       </c>
     </row>
     <row r="22">
@@ -1038,19 +1038,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9834256768226624</v>
+        <v>0.9999921321868896</v>
       </c>
     </row>
     <row r="23">
@@ -1071,14 +1071,14 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6758171916007996</v>
+        <v>0.9999921321868896</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9993959665298462</v>
+        <v>0.9999879598617554</v>
       </c>
     </row>
     <row r="25">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1131,10 +1131,10 @@
         </is>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9983756542205811</v>
+        <v>0.9999864101409912</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4853151738643646</v>
+        <v>0.9993066787719727</v>
       </c>
     </row>
     <row r="27">
@@ -1178,19 +1178,19 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7128250598907471</v>
+        <v>0.9999914169311523</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9993259906768799</v>
+        <v>0.9999798536300659</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9990267753601074</v>
+        <v>0.999991774559021</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9986523985862732</v>
+        <v>0.9999831914901733</v>
       </c>
     </row>
     <row r="31">
@@ -1290,19 +1290,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E31" t="b">
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9897184371948242</v>
+        <v>0.9999778270721436</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9992648959159851</v>
+        <v>0.9999865293502808</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9990891218185425</v>
+        <v>0.9999750852584839</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9984495639801025</v>
+        <v>0.5795177221298218</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.998572826385498</v>
+        <v>0.9999513626098633</v>
       </c>
     </row>
     <row r="36">
@@ -1430,19 +1430,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E36" t="b">
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9035880565643311</v>
+        <v>0.9999580383300781</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9987345337867737</v>
+        <v>0.9999656677246094</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9994694590568542</v>
+        <v>0.9999945163726807</v>
       </c>
     </row>
     <row r="39">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.998431384563446</v>
+        <v>0.9999773502349854</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.994473397731781</v>
+        <v>0.9945334196090698</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.999289870262146</v>
+        <v>0.9999955892562866</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9989141225814819</v>
+        <v>0.9936854243278503</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9861525297164917</v>
+        <v>0.9999610185623169</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9291113018989563</v>
+        <v>0.9997648596763611</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9929578304290771</v>
+        <v>0.9999700784683228</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9897488951683044</v>
+        <v>0.9999510049819946</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E47" t="b">
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9993405938148499</v>
+        <v>0.9461715817451477</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9986051917076111</v>
+        <v>0.99994957447052</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9988868832588196</v>
+        <v>0.999996542930603</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9964726567268372</v>
+        <v>0.9999066591262817</v>
       </c>
     </row>
     <row r="51">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9364915490150452</v>
+        <v>0.9208369255065918</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9984429478645325</v>
+        <v>0.9999450445175171</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9990267753601074</v>
+        <v>0.9999066591262817</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9980846643447876</v>
+        <v>0.9998960494995117</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9911946058273315</v>
+        <v>0.9999864101409912</v>
       </c>
     </row>
     <row r="56">
@@ -1990,19 +1990,19 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E56" t="b">
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.8731873035430908</v>
+        <v>0.9999948740005493</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9990711212158203</v>
+        <v>0.9999958276748657</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.989159882068634</v>
+        <v>0.9999021291732788</v>
       </c>
     </row>
     <row r="59">
@@ -2074,19 +2074,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9820870161056519</v>
+        <v>0.9999947547912598</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.99919193983078</v>
+        <v>0.9999934434890747</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9924445748329163</v>
+        <v>0.9999898672103882</v>
       </c>
     </row>
     <row r="62">
@@ -2158,19 +2158,19 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E62" t="b">
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9699147939682007</v>
+        <v>0.9999945163726807</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9883339405059814</v>
+        <v>0.9999245405197144</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9669240117073059</v>
+        <v>0.9997400641441345</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9858726263046265</v>
+        <v>0.9999573230743408</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9993552565574646</v>
+        <v>0.9999573230743408</v>
       </c>
     </row>
     <row r="67">
@@ -2303,14 +2303,14 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9970597624778748</v>
+        <v>0.9999126195907593</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9780805706977844</v>
+        <v>0.9999573230743408</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9994072914123535</v>
+        <v>0.999946117401123</v>
       </c>
     </row>
     <row r="70">
@@ -2382,19 +2382,19 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E70" t="b">
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9884309768676758</v>
+        <v>0.9999905824661255</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9672666192054749</v>
+        <v>0.999922513961792</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9990652203559875</v>
+        <v>0.999977707862854</v>
       </c>
     </row>
     <row r="73">
@@ -2466,7 +2466,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="E73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9844473600387573</v>
+        <v>0.9999500513076782</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9941449761390686</v>
+        <v>0.999985933303833</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9980326294898987</v>
+        <v>0.9999899864196777</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.999377429485321</v>
+        <v>0.9999500513076782</v>
       </c>
     </row>
     <row r="77">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="E77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.998156726360321</v>
+        <v>0.9970876574516296</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9989626407623291</v>
+        <v>0.9999500513076782</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9989141225814819</v>
+        <v>0.9999921321868896</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9921562671661377</v>
+        <v>0.9999517202377319</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.99880051612854</v>
+        <v>0.9999538660049438</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9989971518516541</v>
+        <v>0.9999619722366333</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9980244636535645</v>
+        <v>0.9999877214431763</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9989141225814819</v>
+        <v>0.9999877214431763</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9986024498939514</v>
+        <v>0.9999960660934448</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9992569088935852</v>
+        <v>0.9999706745147705</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9991794228553772</v>
+        <v>0.9999912977218628</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9987204074859619</v>
+        <v>0.999969482421875</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9685045480728149</v>
+        <v>0.9999860525131226</v>
       </c>
     </row>
     <row r="90">
@@ -2942,19 +2942,19 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E90" t="b">
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9894002079963684</v>
+        <v>0.9999940395355225</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9069139957427979</v>
+        <v>0.999994158744812</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9991270899772644</v>
+        <v>0.9999939203262329</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9975380897521973</v>
+        <v>0.9999940395355225</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9993336796760559</v>
+        <v>0.9999938011169434</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9987807869911194</v>
+        <v>0.9999934434890747</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9983671307563782</v>
+        <v>0.9999549388885498</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9985997080802917</v>
+        <v>0.9997524619102478</v>
       </c>
     </row>
     <row r="98">
@@ -3166,19 +3166,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E98" t="b">
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9888152480125427</v>
+        <v>0.9999954700469971</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9982321858406067</v>
+        <v>0.9999897480010986</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9991574287414551</v>
+        <v>0.9999902248382568</v>
       </c>
     </row>
     <row r="101">
@@ -3250,19 +3250,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E101" t="b">
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9943873286247253</v>
+        <v>0.9999938011169434</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.988979697227478</v>
+        <v>0.8688458800315857</v>
       </c>
     </row>
     <row r="103">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.998833954334259</v>
+        <v>0.9999806880950928</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.996243953704834</v>
+        <v>0.9999912977218628</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9982170462608337</v>
+        <v>0.9999572038650513</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9993764758110046</v>
+        <v>0.9999930858612061</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9974028468132019</v>
+        <v>0.9998799562454224</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.8311381340026855</v>
+        <v>0.9999011754989624</v>
       </c>
     </row>
     <row r="109">
@@ -3474,19 +3474,19 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E109" t="b">
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9874165058135986</v>
+        <v>0.9999896287918091</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9954330921173096</v>
+        <v>0.9999798536300659</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9989141225814819</v>
+        <v>0.9999748468399048</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.998833954334259</v>
+        <v>0.9999531507492065</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9648012518882751</v>
+        <v>0.9994970560073853</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9990231990814209</v>
+        <v>0.9999932050704956</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9984452128410339</v>
+        <v>0.999961256980896</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9978379607200623</v>
+        <v>0.999724805355072</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9990485310554504</v>
+        <v>0.9999793767929077</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>ParamViolation</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>HardwareFault</t>
-        </is>
-      </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9950651526451111</v>
+        <v>0.9457113146781921</v>
       </c>
     </row>
     <row r="119">
@@ -3754,19 +3754,19 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E119" t="b">
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9804674386978149</v>
+        <v>0.5720459222793579</v>
       </c>
     </row>
     <row r="120">
@@ -3782,19 +3782,19 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E120" t="b">
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.8277575969696045</v>
+        <v>0.9999798536300659</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9992871880531311</v>
+        <v>0.9999372959136963</v>
       </c>
     </row>
     <row r="122">
@@ -3838,19 +3838,19 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E122" t="b">
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9284405708312988</v>
+        <v>0.9999963045120239</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9939794540405273</v>
+        <v>0.9999372959136963</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9979904890060425</v>
+        <v>0.9999963045120239</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.99720299243927</v>
+        <v>0.9999372959136963</v>
       </c>
     </row>
     <row r="126">
@@ -3950,19 +3950,19 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E126" t="b">
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9952501058578491</v>
+        <v>0.9999955892562866</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9968234300613403</v>
+        <v>0.9556541442871094</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9993038177490234</v>
+        <v>0.9999798536300659</v>
       </c>
     </row>
     <row r="129">
@@ -4034,19 +4034,19 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9291621446609497</v>
+        <v>0.998867392539978</v>
       </c>
     </row>
     <row r="130">
@@ -4062,19 +4062,19 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E130" t="b">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.990501880645752</v>
+        <v>0.8907436728477478</v>
       </c>
     </row>
     <row r="131">
@@ -4090,19 +4090,19 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.7095755338668823</v>
+        <v>0.9999853372573853</v>
       </c>
     </row>
     <row r="132">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4127,10 +4127,10 @@
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.999182403087616</v>
+        <v>0.9998902082443237</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.6008711457252502</v>
+        <v>0.9999898672103882</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9937012195587158</v>
+        <v>0.9999122619628906</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9989141225814819</v>
+        <v>0.9999885559082031</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9995385408401489</v>
+        <v>0.9999912977218628</v>
       </c>
     </row>
     <row r="137">
@@ -4258,19 +4258,19 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E137" t="b">
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.8690182566642761</v>
+        <v>0.9999897480010986</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9984026551246643</v>
+        <v>0.9999911785125732</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9990240335464478</v>
+        <v>0.9999911785125732</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E140" t="b">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.99444180727005</v>
+        <v>0.9999867677688599</v>
       </c>
     </row>
     <row r="141">
@@ -4370,19 +4370,19 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
           <t>ParamViolation</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>ParamViolation</t>
-        </is>
-      </c>
       <c r="E141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9859755635261536</v>
+        <v>0.6750863194465637</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9981385469436646</v>
+        <v>0.9999798536300659</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9990288019180298</v>
+        <v>0.9998751878738403</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9989731311798096</v>
+        <v>0.9999938011169434</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9988834261894226</v>
+        <v>0.9998751878738403</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9967508316040039</v>
+        <v>0.9999846220016479</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9915277361869812</v>
+        <v>0.999946117401123</v>
       </c>
     </row>
     <row r="148">
@@ -4566,19 +4566,19 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E148" t="b">
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9889096617698669</v>
+        <v>0.9999908208847046</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9989141225814819</v>
+        <v>0.9999070167541504</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.957446277141571</v>
+        <v>0.9998812675476074</v>
       </c>
     </row>
     <row r="151">
@@ -4650,19 +4650,19 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.5498644709587097</v>
+        <v>0.9999798536300659</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9950651526451111</v>
+        <v>0.9999897480010986</v>
       </c>
     </row>
     <row r="153">
@@ -4706,19 +4706,19 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E153" t="b">
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9851211309432983</v>
+        <v>0.9999945163726807</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9792004823684692</v>
+        <v>0.9999409914016724</v>
       </c>
     </row>
     <row r="155">
@@ -4762,19 +4762,19 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E155" t="b">
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9860801100730896</v>
+        <v>0.9999932050704956</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.997601330280304</v>
+        <v>0.9999138116836548</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9986497759819031</v>
+        <v>0.9999938011169434</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9991266131401062</v>
+        <v>0.9999281167984009</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9994354844093323</v>
+        <v>0.9999934434890747</v>
       </c>
     </row>
     <row r="160">
@@ -4902,19 +4902,19 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9485483765602112</v>
+        <v>0.9999465942382812</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9994099140167236</v>
+        <v>0.9999918937683105</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9493414759635925</v>
+        <v>0.9999865293502808</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9993485808372498</v>
+        <v>0.9999908208847046</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9780805706977844</v>
+        <v>0.9998160004615784</v>
       </c>
     </row>
     <row r="165">
@@ -5042,19 +5042,19 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E165" t="b">
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9950651526451111</v>
+        <v>0.9999955892562866</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9993311166763306</v>
+        <v>0.9999858140945435</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9990198612213135</v>
+        <v>0.9999182224273682</v>
       </c>
     </row>
     <row r="168">
@@ -5138,7 +5138,7 @@
         <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9988561868667603</v>
+        <v>0.5097968578338623</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9993801116943359</v>
+        <v>0.9999798536300659</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9978706836700439</v>
+        <v>0.9999182224273682</v>
       </c>
     </row>
     <row r="171">
@@ -5210,19 +5210,19 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9873844385147095</v>
+        <v>0.9995272159576416</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9968340992927551</v>
+        <v>0.9999798536300659</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9989141225814819</v>
+        <v>0.9999934434890747</v>
       </c>
     </row>
     <row r="174">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5303,10 +5303,10 @@
         </is>
       </c>
       <c r="E174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9992517828941345</v>
+        <v>0.9999896287918091</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9994895458221436</v>
+        <v>0.9999934434890747</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9983035326004028</v>
+        <v>0.9999922513961792</v>
       </c>
     </row>
     <row r="177">
@@ -5383,14 +5383,14 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.8531233072280884</v>
+        <v>0.9999896287918091</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E178" t="b">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9911439418792725</v>
+        <v>0.9999943971633911</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9991551637649536</v>
+        <v>0.9999862909317017</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9977686405181885</v>
+        <v>0.9999803304672241</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9973514080047607</v>
+        <v>0.9999901056289673</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9994045495986938</v>
+        <v>0.9999874830245972</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.99444180727005</v>
+        <v>0.9999543428421021</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9989099502563477</v>
+        <v>0.9999946355819702</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9987478256225586</v>
+        <v>0.9999951124191284</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E186" t="b">
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.6998755931854248</v>
+        <v>0.9999951124191284</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9988139867782593</v>
+        <v>0.999994158744812</v>
       </c>
     </row>
     <row r="188">
@@ -5686,19 +5686,19 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.8349986672401428</v>
+        <v>0.9999920129776001</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E189" t="b">
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9566645622253418</v>
+        <v>0.9999933242797852</v>
       </c>
     </row>
     <row r="190">
@@ -5742,19 +5742,19 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E190" t="b">
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9889096617698669</v>
+        <v>0.9999926090240479</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9779207110404968</v>
+        <v>0.9300997853279114</v>
       </c>
     </row>
     <row r="192">
@@ -5798,19 +5798,19 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E192" t="b">
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9236772656440735</v>
+        <v>0.9999898672103882</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9994428753852844</v>
+        <v>0.9999867677688599</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9662696123123169</v>
+        <v>0.9999251365661621</v>
       </c>
     </row>
     <row r="195">
@@ -5882,19 +5882,19 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E195" t="b">
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9989276528358459</v>
+        <v>0.9998325109481812</v>
       </c>
     </row>
     <row r="196">
@@ -5910,7 +5910,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5919,10 +5919,10 @@
         </is>
       </c>
       <c r="E196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9451597929000854</v>
+        <v>0.9999942779541016</v>
       </c>
     </row>
     <row r="197">
@@ -5938,19 +5938,19 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E197" t="b">
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9889096617698669</v>
+        <v>0.9999946355819702</v>
       </c>
     </row>
     <row r="198">
@@ -5966,7 +5966,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5975,10 +5975,10 @@
         </is>
       </c>
       <c r="E198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.5823765397071838</v>
+        <v>0.9999948740005493</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E199" t="b">
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.989159882068634</v>
+        <v>0.9999921321868896</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9989141225814819</v>
+        <v>0.8802676200866699</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9958339929580688</v>
+        <v>0.9999921321868896</v>
       </c>
     </row>
     <row r="202">
@@ -6078,19 +6078,19 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E202" t="b">
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9566645622253418</v>
+        <v>0.9999912977218628</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9989141225814819</v>
+        <v>0.9999892711639404</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9898627996444702</v>
+        <v>0.9999293088912964</v>
       </c>
     </row>
     <row r="205">
@@ -6162,19 +6162,19 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E205" t="b">
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9927501678466797</v>
+        <v>0.9999933242797852</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9985931515693665</v>
+        <v>0.9999858140945435</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.99444180727005</v>
+        <v>0.99974125623703</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9984996318817139</v>
+        <v>0.9999580383300781</v>
       </c>
     </row>
     <row r="209">
@@ -6274,19 +6274,19 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E209" t="b">
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9987461566925049</v>
+        <v>0.991055965423584</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9987428784370422</v>
+        <v>0.9999873638153076</v>
       </c>
     </row>
   </sheetData>
